--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unreal Projects\FH_MAI1_RGBWars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E69F1A4-9B68-48D1-9333-3E3114CCDE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB613F-4C14-4099-953D-1A51440200DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Set Bullet Color per Player Color</t>
   </si>
   <si>
-    <t>Add Local Multiplayer (Player Colors, Max Player Count, Player Character Spawning, use only static Camera)</t>
-  </si>
-  <si>
     <t>Create Damage Types for each Player Color (Own Color -&gt; Heal, Other Color -&gt; Damage)</t>
   </si>
   <si>
@@ -206,7 +203,19 @@
     <t>Building an Executeable for Windows</t>
   </si>
   <si>
-    <t>Updating Documentation</t>
+    <t>Write Design Document (Miro Board)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>08.12.2025</t>
+  </si>
+  <si>
+    <t>Fix Bug with Exit Game Button</t>
+  </si>
+  <si>
+    <t>Updating Documentation + Hand In</t>
   </si>
 </sst>
 </file>
@@ -269,8 +278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84A43BCD-84A9-4110-8B6C-082307D18F29}" name="Table1" displayName="Table1" ref="B2:D53" totalsRowShown="0">
-  <autoFilter ref="B2:D53" xr:uid="{84A43BCD-84A9-4110-8B6C-082307D18F29}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84A43BCD-84A9-4110-8B6C-082307D18F29}" name="Table1" displayName="Table1" ref="B2:D51" totalsRowShown="0">
+  <autoFilter ref="B2:D51" xr:uid="{84A43BCD-84A9-4110-8B6C-082307D18F29}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5934F34A-9206-4DA4-8344-F2A97E50577C}" name="Date"/>
     <tableColumn id="2" xr3:uid="{7FF7D5A3-FA3F-4E0F-8AF5-F97F0F607FEB}" name="Duration in h"/>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D49"/>
+  <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,11 +566,11 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1">
         <f>SUM(Table1[Duration in h])</f>
-        <v>68.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -576,14 +585,14 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -591,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -602,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -613,21 +622,21 @@
         <v>3</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -635,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -646,21 +655,21 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -668,10 +677,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -679,10 +688,10 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -690,21 +699,21 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -712,10 +721,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -723,10 +732,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -737,7 +746,7 @@
         <v>0.5</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -748,7 +757,7 @@
         <v>0.5</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -756,10 +765,10 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -767,10 +776,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -778,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -789,304 +798,329 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34" t="s">
         <v>38</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>0.5</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>0.5</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>47</v>
-      </c>
-      <c r="C43">
-        <v>0.5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unreal Projects\FH_MAI1_RGBWars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBB613F-4C14-4099-953D-1A51440200DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575E4899-E8AA-46D0-86E1-BEFDBE54F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>Write Design Document (Miro Board)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>08.12.2025</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Updating Documentation + Hand In</t>
+  </si>
+  <si>
+    <t>Adding Local Multiplayer (with one Static Camera)</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>0.5</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
